--- a/OrdersAndisheh/DTO.xlsx
+++ b/OrdersAndisheh/DTO.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ItemSefaresh" sheetId="1" r:id="rId1"/>
     <sheet name="SelectKala" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -621,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1006,16 +1005,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OrdersAndisheh/DTO.xlsx
+++ b/OrdersAndisheh/DTO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,15 +66,9 @@
     <t>تعداد</t>
   </si>
   <si>
-    <t>کارتن</t>
-  </si>
-  <si>
     <t>مقصد</t>
   </si>
   <si>
-    <t>وزن</t>
-  </si>
-  <si>
     <t>راننده</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>پالت</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -178,6 +169,15 @@
   </si>
   <si>
     <t>selectRow</t>
+  </si>
+  <si>
+    <t>تعداد پالت</t>
+  </si>
+  <si>
+    <t>تعداد کارتن</t>
+  </si>
+  <si>
+    <t>وزن کل</t>
   </si>
 </sst>
 </file>
@@ -327,6 +327,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -374,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +624,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,59 +658,59 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,159 +718,159 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -896,109 +899,109 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="8"/>
     </row>
